--- a/testdata/Book2.xlsx
+++ b/testdata/Book2.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EC6C6FB2-EA51-4ECB-8500-F35E3A9290BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1611r\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4026824-9E1F-4FC0-BC24-AA17735DC37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-384000" yWindow="-384000" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ram1</t>
   </si>
@@ -39,6 +43,9 @@
   </si>
   <si>
     <t>ram6</t>
+  </si>
+  <si>
+    <t>werty</t>
   </si>
 </sst>
 </file>
@@ -74,9 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,12 +368,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -394,11 +403,11 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>35776</v>
-      </c>
-      <c r="C3" s="1">
-        <v>34984</v>
+      <c r="B3" s="2">
+        <v>2533</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
